--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,19 +598,19 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>362000</v>
+        <v>413000</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -687,21 +687,21 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>349000</v>
+        <v>366000</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>346000</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -754,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -787,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>409000</v>
+        <v>423000</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -816,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -834,33 +834,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>396000</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -887,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>393000</v>
+        <v>356000</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -937,13 +937,2463 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>353000</v>
+        <v>366000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>361000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>349000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>369000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>361000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>402000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>433000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>377000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>423000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>391000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>444000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>377000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>387000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>382000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>418000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>411000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>437000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>442000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>454000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>449000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>454000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>423000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>388000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>398000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>404000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>394000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>413000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>428000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>426000</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +3403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1223,7 +3673,7 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1247,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1337,24 +3787,24 @@
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
         <v>2</v>
       </c>
-      <c r="AO3">
-        <v>2</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
       <c r="AQ3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1381,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1423,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1447,31 +3897,31 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO4">
         <v>10</v>
@@ -1481,6 +3931,137 @@
       </c>
       <c r="AQ4">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>80000</v>
+      </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <v>25</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
